--- a/pfu.xlsx
+++ b/pfu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\komun\dolg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62C385-8FDE-4670-9C3F-ACA63877A162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E62392C-811A-4F24-B588-1DA95EB9875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
     <col min="35" max="35" width="8.28515625" customWidth="1"/>
     <col min="36" max="36" width="9.7109375" customWidth="1"/>
     <col min="37" max="37" width="9.5703125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="7.28515625" style="1" customWidth="1"/>
     <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
   </cols>
@@ -682,7 +682,7 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="3" t="s">

--- a/pfu.xlsx
+++ b/pfu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\komun\dolg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E62392C-811A-4F24-B588-1DA95EB9875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A10DB-4D86-4FEB-AAA9-553B2DD1DA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Приклад" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
     <col min="35" max="35" width="8.28515625" customWidth="1"/>
     <col min="36" max="36" width="9.7109375" customWidth="1"/>
     <col min="37" max="37" width="9.5703125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" style="1" customWidth="1"/>
     <col min="39" max="39" width="7.28515625" style="1" customWidth="1"/>
     <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
   </cols>
